--- a/power_unit/results/degree-100units.xlsx
+++ b/power_unit/results/degree-100units.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,22 +499,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3487349213333</v>
+        <v>531.0850046563334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02237143934856136</v>
+        <v>1.852246291942463</v>
       </c>
       <c r="G2" t="n">
-        <v>235.2795037086667</v>
+        <v>199.3849382896666</v>
       </c>
       <c r="H2" t="n">
-        <v>5.176628054499176</v>
+        <v>0.2593836210129234</v>
       </c>
       <c r="I2" t="n">
-        <v>151.1433701176663</v>
+        <v>68.98643471633493</v>
       </c>
       <c r="J2" t="n">
-        <v>5962.917252890445</v>
+        <v>0.2671930130246686</v>
       </c>
     </row>
     <row r="3">
@@ -531,22 +531,22 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>535.0086856140001</v>
+        <v>521.7645425023333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8191324456045791</v>
+        <v>37.94383726983753</v>
       </c>
       <c r="G3" t="n">
-        <v>390.3074793733335</v>
+        <v>324.3021403756667</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3160715525859185</v>
+        <v>16.68547570075856</v>
       </c>
       <c r="I3" t="n">
-        <v>244.9302508597055</v>
+        <v>109.2468075856658</v>
       </c>
       <c r="J3" t="n">
-        <v>15053.09530455618</v>
+        <v>3.739761193542146</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +563,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>538.1917535896667</v>
+        <v>522.7981914783335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3435289787667324</v>
+        <v>35.99543940988404</v>
       </c>
       <c r="G4" t="n">
-        <v>573.8964485506667</v>
+        <v>471.0472034223337</v>
       </c>
       <c r="H4" t="n">
-        <v>4.159246330773617</v>
+        <v>7.601468101198663</v>
       </c>
       <c r="I4" t="n">
-        <v>322.0655430440217</v>
+        <v>141.0793989186699</v>
       </c>
       <c r="J4" t="n">
-        <v>25681.60360851069</v>
+        <v>0.3368527715097928</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +595,22 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>532.664274565</v>
+        <v>528.6010943266659</v>
       </c>
       <c r="F5" t="n">
-        <v>8.524744781428049</v>
+        <v>1.132110053659852</v>
       </c>
       <c r="G5" t="n">
-        <v>798.8015801759999</v>
+        <v>678.8397584089998</v>
       </c>
       <c r="H5" t="n">
-        <v>9.567474790192044</v>
+        <v>13.0281556128289</v>
       </c>
       <c r="I5" t="n">
-        <v>412.1551465716529</v>
+        <v>189.7126512706545</v>
       </c>
       <c r="J5" t="n">
-        <v>42507.28648154144</v>
+        <v>3.140902475720147</v>
       </c>
     </row>
     <row r="6">
@@ -627,22 +627,22 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>535.3440058069997</v>
+        <v>527.7538801173323</v>
       </c>
       <c r="F6" t="n">
-        <v>5.14743150199334</v>
+        <v>12.03504531998761</v>
       </c>
       <c r="G6" t="n">
-        <v>1009.752992657667</v>
+        <v>887.4502887249995</v>
       </c>
       <c r="H6" t="n">
-        <v>10.65463961872761</v>
+        <v>355.8698884873783</v>
       </c>
       <c r="I6" t="n">
-        <v>455.8837347354213</v>
+        <v>212.9228627800263</v>
       </c>
       <c r="J6" t="n">
-        <v>52733.60733645871</v>
+        <v>1.751091819483566</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>532.830057048</v>
+        <v>524.5039374009999</v>
       </c>
       <c r="F7" t="n">
-        <v>9.833248375996174</v>
+        <v>67.12723480805867</v>
       </c>
       <c r="G7" t="n">
-        <v>1260.623147899001</v>
+        <v>1107.499605917334</v>
       </c>
       <c r="H7" t="n">
-        <v>11.38410657559802</v>
+        <v>299.1901488000315</v>
       </c>
       <c r="I7" t="n">
-        <v>521.4984091226639</v>
+        <v>245.9888060023489</v>
       </c>
       <c r="J7" t="n">
-        <v>68170.37382757363</v>
+        <v>19.36520805984571</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +691,22 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>534.4229893876667</v>
+        <v>516.467679784666</v>
       </c>
       <c r="F8" t="n">
-        <v>12.99841735741706</v>
+        <v>1.311921446959455</v>
       </c>
       <c r="G8" t="n">
-        <v>1560.199020610334</v>
+        <v>1365.290747574333</v>
       </c>
       <c r="H8" t="n">
-        <v>1.567322633668825</v>
+        <v>326.2004720829401</v>
       </c>
       <c r="I8" t="n">
-        <v>663.9108040699781</v>
+        <v>305.5834795913106</v>
       </c>
       <c r="J8" t="n">
-        <v>109603.5796107475</v>
+        <v>5.043736169337013</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +723,22 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>530.257704009</v>
+        <v>520.7864541523328</v>
       </c>
       <c r="F9" t="n">
-        <v>60.00978859359498</v>
+        <v>84.98766270543572</v>
       </c>
       <c r="G9" t="n">
-        <v>1836.564797386999</v>
+        <v>1585.529928563001</v>
       </c>
       <c r="H9" t="n">
-        <v>14.43374375975626</v>
+        <v>181.6291931600196</v>
       </c>
       <c r="I9" t="n">
-        <v>733.7497953327062</v>
+        <v>334.3015046943717</v>
       </c>
       <c r="J9" t="n">
-        <v>135229.3219039549</v>
+        <v>3.989241862299396</v>
       </c>
     </row>
     <row r="10">
@@ -755,22 +755,22 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>532.4775986583336</v>
+        <v>526.5215144936652</v>
       </c>
       <c r="F10" t="n">
-        <v>92.59013219820856</v>
+        <v>81.12429278788322</v>
       </c>
       <c r="G10" t="n">
-        <v>1925.913627081667</v>
+        <v>1615.424675741332</v>
       </c>
       <c r="H10" t="n">
-        <v>5.959529968629684</v>
+        <v>9347.629471238082</v>
       </c>
       <c r="I10" t="n">
-        <v>753.064313960771</v>
+        <v>330.5898032972352</v>
       </c>
       <c r="J10" t="n">
-        <v>141132.6303733893</v>
+        <v>183.611449464805</v>
       </c>
     </row>
     <row r="11">
@@ -787,22 +787,22 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>527.825555406666</v>
+        <v>524.6571617310013</v>
       </c>
       <c r="F11" t="n">
-        <v>82.32899896313522</v>
+        <v>38.57922934654506</v>
       </c>
       <c r="G11" t="n">
-        <v>2266.959881777334</v>
+        <v>1950.685316453669</v>
       </c>
       <c r="H11" t="n">
-        <v>46.74753451680605</v>
+        <v>900.8602323058506</v>
       </c>
       <c r="I11" t="n">
-        <v>908.1635816309766</v>
+        <v>405.9562580778899</v>
       </c>
       <c r="J11" t="n">
-        <v>205325.7172260345</v>
+        <v>12.65312238545498</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +819,22 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>521.1830928289977</v>
+        <v>523.5224517476672</v>
       </c>
       <c r="F12" t="n">
-        <v>2.285161589905954</v>
+        <v>50.42400899906071</v>
       </c>
       <c r="G12" t="n">
-        <v>2628.149789552335</v>
+        <v>2290.027788093001</v>
       </c>
       <c r="H12" t="n">
-        <v>3.116175896467651</v>
+        <v>388.1249948988873</v>
       </c>
       <c r="I12" t="n">
-        <v>1050.473598325443</v>
+        <v>468.9137668003193</v>
       </c>
       <c r="J12" t="n">
-        <v>275784.9746313413</v>
+        <v>16.1855773374341</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +851,22 @@
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>521.8489094920005</v>
+        <v>516.5509667643346</v>
       </c>
       <c r="F13" t="n">
-        <v>9.592295435777563</v>
+        <v>1.56765197714357</v>
       </c>
       <c r="G13" t="n">
-        <v>3002.516260289665</v>
+        <v>2578.080617085667</v>
       </c>
       <c r="H13" t="n">
-        <v>28.93515547407168</v>
+        <v>3743.070830753062</v>
       </c>
       <c r="I13" t="n">
-        <v>1210.28728142468</v>
+        <v>528.6532159367003</v>
       </c>
       <c r="J13" t="n">
-        <v>366907.5003206669</v>
+        <v>158.063685021027</v>
       </c>
     </row>
     <row r="14">
@@ -883,86 +883,22 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>526.3875224140016</v>
+        <v>527.9259598129938</v>
       </c>
       <c r="F14" t="n">
-        <v>102.0752947004228</v>
+        <v>18.35376767236155</v>
       </c>
       <c r="G14" t="n">
-        <v>3258.478326852002</v>
+        <v>2950.674976600334</v>
       </c>
       <c r="H14" t="n">
-        <v>57551.09631855553</v>
+        <v>1429.831278061922</v>
       </c>
       <c r="I14" t="n">
-        <v>1261.53645147699</v>
+        <v>578.1850712220112</v>
       </c>
       <c r="J14" t="n">
-        <v>381920.9045921915</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>25</v>
-      </c>
-      <c r="B15" t="n">
-        <v>748</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>519.4844272629998</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.769063985555656</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3843.665346342338</v>
-      </c>
-      <c r="H15" t="n">
-        <v>453.1211443007502</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1451.870862482441</v>
-      </c>
-      <c r="J15" t="n">
-        <v>524024.8814856191</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>26</v>
-      </c>
-      <c r="B16" t="n">
-        <v>798</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>526.9399068803372</v>
-      </c>
-      <c r="F16" t="n">
-        <v>85.3416419222004</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4280.927426033333</v>
-      </c>
-      <c r="H16" t="n">
-        <v>86.4179758624918</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1555.291185797993</v>
-      </c>
-      <c r="J16" t="n">
-        <v>604632.9736324947</v>
+        <v>41.50753715637529</v>
       </c>
     </row>
   </sheetData>

--- a/power_unit/results/degree-100units.xlsx
+++ b/power_unit/results/degree-100units.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,13 +464,33 @@
           <t>centralized_lqr_var</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>distributed_lqr_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>distributed_lqr_var</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>distributed_worst_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distributed_worst_var</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -479,10 +499,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03125</v>
+        <v>197.0758074669997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015625</v>
+        <v>1.414945386046312</v>
+      </c>
+      <c r="G2" t="n">
+        <v>208.9083049255986</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.753600110203529</v>
+      </c>
+      <c r="I2" t="n">
+        <v>105.8223750806284</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.138725501285119</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +522,31 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0234375</v>
+        <v>196.8949961952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0078125</v>
+        <v>3.14353827798809</v>
+      </c>
+      <c r="G3" t="n">
+        <v>302.3061505180002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>79.99693727720417</v>
+      </c>
+      <c r="I3" t="n">
+        <v>165.5695554619811</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.23965258543011</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +554,447 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>195.7353661193991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.280914016561214</v>
+      </c>
+      <c r="G4" t="n">
+        <v>218.9111166752006</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.15384443459718</v>
+      </c>
+      <c r="I4" t="n">
+        <v>121.3195275490218</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.389969184504498</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>249</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>197.7094199374015</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.070285385242996</v>
+      </c>
+      <c r="G5" t="n">
+        <v>259.1573304695995</v>
+      </c>
+      <c r="H5" t="n">
+        <v>54.69207530390005</v>
+      </c>
+      <c r="I5" t="n">
+        <v>140.1783936370175</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.23035164187914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>299</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>198.1611861358011</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.904212223162459</v>
+      </c>
+      <c r="G6" t="n">
+        <v>290.6622843750005</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80.17803457234807</v>
+      </c>
+      <c r="I6" t="n">
+        <v>151.386235009982</v>
+      </c>
+      <c r="J6" t="n">
+        <v>42.22852895910169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>349</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>196.6324963322</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.27142949757305</v>
+      </c>
+      <c r="G7" t="n">
+        <v>365.6502239016003</v>
+      </c>
+      <c r="H7" t="n">
+        <v>60.6854180410478</v>
+      </c>
+      <c r="I7" t="n">
+        <v>189.4460864223467</v>
+      </c>
+      <c r="J7" t="n">
+        <v>34.37779696449999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>399</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>197.7884383182023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.026618637913047</v>
+      </c>
+      <c r="G8" t="n">
+        <v>419.3451296498007</v>
+      </c>
+      <c r="H8" t="n">
+        <v>53.34031534573464</v>
+      </c>
+      <c r="I8" t="n">
+        <v>209.1927803689738</v>
+      </c>
+      <c r="J8" t="n">
+        <v>27.37704418492981</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>448</v>
+      </c>
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.015625</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+      <c r="E9" t="n">
+        <v>201.9829363940034</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.915784190716235</v>
+      </c>
+      <c r="G9" t="n">
+        <v>492.2585607982014</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.91838858405251</v>
+      </c>
+      <c r="I9" t="n">
+        <v>229.914507034793</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.85661214127624</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>498</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>201.3928656332008</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.910048443629415</v>
+      </c>
+      <c r="G10" t="n">
+        <v>624.3870870197992</v>
+      </c>
+      <c r="H10" t="n">
+        <v>40.26359290374396</v>
+      </c>
+      <c r="I10" t="n">
+        <v>291.9692316638813</v>
+      </c>
+      <c r="J10" t="n">
+        <v>39.25465262811166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>205.465427367598</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.19775342100881</v>
+      </c>
+      <c r="G11" t="n">
+        <v>739.5536411285993</v>
+      </c>
+      <c r="H11" t="n">
+        <v>34.30955696024969</v>
+      </c>
+      <c r="I11" t="n">
+        <v>322.8073371266255</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29.32529030919357</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>598</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>205.0211536352022</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.114393502507394</v>
+      </c>
+      <c r="G12" t="n">
+        <v>908.8495986042008</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42.89021870200756</v>
+      </c>
+      <c r="I12" t="n">
+        <v>385.2550538504069</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40.50879245139743</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>648</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>203.4924126331973</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.058411599822399</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1068.310571929802</v>
+      </c>
+      <c r="H13" t="n">
+        <v>38.30894601888073</v>
+      </c>
+      <c r="I13" t="n">
+        <v>443.3027929779386</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21.77861894780649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>698</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>209.3426755378021</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.029258454275904</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1240.158797964999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>62.19908300471552</v>
+      </c>
+      <c r="I14" t="n">
+        <v>497.7491131607752</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.12615179902898</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>216.8560010212004</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.829931574928692</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1430.6502865586</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55.42653601788703</v>
+      </c>
+      <c r="I15" t="n">
+        <v>558.2610251736496</v>
+      </c>
+      <c r="J15" t="n">
+        <v>27.60863357994145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>798</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>213.5664715952018</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12.30435674067658</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1673.680504274401</v>
+      </c>
+      <c r="H16" t="n">
+        <v>69.87957138176047</v>
+      </c>
+      <c r="I16" t="n">
+        <v>629.1862902911605</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31.46366789476721</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>848</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>218.4413065694018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.729341277257502</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1879.269839739598</v>
+      </c>
+      <c r="H17" t="n">
+        <v>71.89186409520998</v>
+      </c>
+      <c r="I17" t="n">
+        <v>710.8875993250364</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.30285534594044</v>
       </c>
     </row>
   </sheetData>
